--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\tags\tag_20210525\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5100E8-BF32-4B3B-922B-B0929F962CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9C7A5-525B-467F-811D-161B7CB071C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,14 +200,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-普攻1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-普攻2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,9 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_PLMXS_atk_slash2</t>
-  </si>
-  <si>
     <t>蝙蝠-普攻1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,10 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200501,200501,200501,200501,200502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Merlin_attack2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +660,41 @@
   </si>
   <si>
     <t>洛基-天赋B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻1-分拆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻2-分拆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_atk1</t>
+  </si>
+  <si>
+    <t>Monster_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-召唤小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900311,900312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200501,200502,200503,200504,200505</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +743,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +772,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -859,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,6 +957,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1539,10 +1580,10 @@
         <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>17</v>
@@ -1560,16 +1601,16 @@
         <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
@@ -1579,10 +1620,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
       <c r="E2" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -1591,25 +1632,25 @@
         <v>34</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1621,7 +1662,7 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>22</v>
@@ -1642,16 +1683,16 @@
         <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,10 +1704,10 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>17</v>
@@ -1675,17 +1716,17 @@
         <v>16</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1715,7 +1756,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>21</v>
@@ -1736,16 +1777,16 @@
         <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1753,7 +1794,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18">
         <v>1</v>
@@ -1762,34 +1803,34 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>0.63329999999999997</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
@@ -1798,13 +1839,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>1.633</v>
+        <v>1.2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="2"/>
@@ -1812,18 +1853,18 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
@@ -1832,13 +1873,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>2.133</v>
+        <v>1.8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="2"/>
@@ -1846,7 +1887,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1854,7 +1895,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
@@ -1866,10 +1907,10 @@
         <v>5.367</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
@@ -1885,7 +1926,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
@@ -1894,13 +1935,13 @@
         <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>4.6333000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1908,7 +1949,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1916,7 +1957,7 @@
         <v>20011</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="E12" s="19">
         <v>1</v>
@@ -1925,20 +1966,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>0.1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O12" s="20">
         <v>200111</v>
@@ -1949,7 +1990,7 @@
         <v>20012</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -1964,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="2"/>
@@ -1982,7 +2023,7 @@
         <v>2002</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
@@ -1991,13 +2032,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>2.8330000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="2"/>
@@ -2005,7 +2046,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2013,7 +2054,7 @@
         <v>2003</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
@@ -2022,13 +2063,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -2036,7 +2077,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="2"/>
       <c r="O15" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2044,7 +2085,7 @@
         <v>2004</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="19">
         <v>2</v>
@@ -2056,10 +2097,10 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="2"/>
@@ -2067,7 +2108,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
@@ -2075,7 +2116,7 @@
         <v>2005</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
@@ -2084,13 +2125,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -2098,7 +2139,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="2"/>
       <c r="O17" s="21" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
@@ -2106,7 +2147,7 @@
         <v>3001</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
@@ -2118,13 +2159,13 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="J18" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18" s="2">
         <v>10</v>
@@ -2147,7 +2188,7 @@
         <v>3002</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
@@ -2156,13 +2197,13 @@
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>3.8330000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="2"/>
@@ -2170,7 +2211,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
@@ -2178,7 +2219,7 @@
         <v>3003</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
@@ -2187,13 +2228,13 @@
         <v>3</v>
       </c>
       <c r="G20" s="2">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="2"/>
@@ -2201,7 +2242,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
@@ -2209,7 +2250,7 @@
         <v>3004</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="18">
         <v>2</v>
@@ -2221,10 +2262,10 @@
         <v>6.7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="4"/>
@@ -2240,7 +2281,7 @@
         <v>3005</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E22" s="19">
         <v>1</v>
@@ -2249,13 +2290,13 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>3.8330000000000002</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2271,7 +2312,7 @@
         <v>4001</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
@@ -2283,11 +2324,11 @@
         <v>2.0329999999999999</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23" s="2">
         <v>10</v>
@@ -2306,32 +2347,34 @@
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="2">
+      <c r="C24" s="25">
         <v>4002</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="D24" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
         <v>3</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="25">
         <v>2.9670000000000001</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="20">
-        <v>1002</v>
+      <c r="H24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="27">
+        <v>400201</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
@@ -2339,7 +2382,7 @@
         <v>5001</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
@@ -2351,7 +2394,7 @@
         <v>1.167</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -2370,7 +2413,7 @@
         <v>5002</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="18">
         <v>1</v>
@@ -2382,7 +2425,7 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -2399,7 +2442,7 @@
         <v>6001</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -2411,7 +2454,7 @@
         <v>1.4670000000000001</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -2430,7 +2473,7 @@
         <v>6002</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
@@ -2442,7 +2485,7 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -2459,7 +2502,7 @@
         <v>8001</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -2471,10 +2514,10 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="2"/>
@@ -2484,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
@@ -2492,7 +2535,7 @@
         <v>8002</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -2501,13 +2544,13 @@
         <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="2"/>
@@ -2515,7 +2558,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
@@ -2523,7 +2566,7 @@
         <v>8003</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
@@ -2532,13 +2575,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="2"/>
@@ -2554,7 +2597,7 @@
         <v>8004</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E32" s="18">
         <v>2</v>
@@ -2566,10 +2609,10 @@
         <v>12.133333333333333</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="4"/>
@@ -2585,7 +2628,7 @@
         <v>8005</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
@@ -2594,13 +2637,13 @@
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2608,7 +2651,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.2">
@@ -2616,7 +2659,7 @@
         <v>9001</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2628,11 +2671,11 @@
         <v>2.1669999999999998</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K34" s="2">
         <v>10</v>
@@ -2647,96 +2690,88 @@
         <v>1.667</v>
       </c>
       <c r="O34" s="20">
-        <v>1001</v>
+        <v>900111</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="2">
+      <c r="C35" s="25">
         <v>9002</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="D35" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="25">
+        <v>1</v>
+      </c>
+      <c r="F35" s="25">
         <v>3</v>
       </c>
-      <c r="G35" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="20">
-        <v>1002</v>
+      <c r="G35" s="25">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="27">
+        <v>900211</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" s="4">
+      <c r="C36" s="25">
+        <v>9003</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="F36" s="29">
+        <v>3</v>
+      </c>
+      <c r="G36" s="25">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="4">
         <v>21011</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C37" s="2">
-        <v>21012</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="D37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
         <v>0</v>
       </c>
       <c r="I37" s="23">
@@ -2758,15 +2793,15 @@
         <v>0</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
-        <v>22011</v>
+        <v>21012</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2798,144 +2833,144 @@
       <c r="N38" s="4">
         <v>0</v>
       </c>
-      <c r="O38" s="20" t="s">
-        <v>145</v>
+      <c r="O38" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
+        <v>22011</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
         <v>22012</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23">
-        <v>0</v>
-      </c>
-      <c r="J39" s="23">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C40" s="4">
+      <c r="D40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="4">
         <v>23011</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23">
-        <v>0</v>
-      </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
+      <c r="D41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
         <v>2301101</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C41" s="2">
-        <v>23012</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="23">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2301201</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
-        <v>28011</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>149</v>
+        <v>23012</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
       <c r="G42" s="2">
@@ -2963,64 +2998,90 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>2801101</v>
+        <v>2301201</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
+        <v>28011</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2801101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
         <v>28012</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23">
-        <v>0</v>
-      </c>
-      <c r="J43" s="23">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
+      <c r="D44" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
         <v>2801201</v>
       </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
